--- a/regions/4/vachroba/vachroba.xlsx
+++ b/regions/4/vachroba/vachroba.xlsx
@@ -61,12 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,25 +121,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,12 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -205,15 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,27 +509,29 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -570,606 +548,678 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="3">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>2006</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2007</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2008</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>2009</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>2010</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>2011</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>2012</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>2013</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>2014</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>2015</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>2016</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>2017</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>2018</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <v>2019</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="Q3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>337</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>424.2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>446.4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>455.9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>544</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>937.9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>1060.0999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>1355.8</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>1613.6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>1682</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>1972.9</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>2066.1720799999998</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <v>2337.6</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <v>2925.9</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="6">
         <v>2504.3000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="Q4" s="6">
+        <v>2789.9</v>
+      </c>
+      <c r="R4" s="6">
+        <v>4079.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>36</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>44</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>50.7</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>56.3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>74.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>143.69999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>178.1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>211.7</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>246.9</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>314.8</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>346</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>400.67563000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <v>453.4</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <v>516.6</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="6">
         <v>441.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="Q5" s="6">
+        <v>533.1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>726.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>4682</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>4727</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>4398</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>4819</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>4696</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>7688</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>8033</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>9351</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>10741</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>12360</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>13464</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>14056.866190000001</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>14607</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="8">
         <v>16647</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="8">
         <v>14355</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="Q6" s="8">
+        <v>17121</v>
+      </c>
+      <c r="R6" s="8">
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>3049</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>3497</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>3442</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>3814</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>3670</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>6143</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="8">
         <v>6868</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>8298</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>8866</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>10043</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>10326</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <v>11134.992039999999</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="8">
         <v>11087</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="8">
         <v>12255</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <v>11334</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="Q7" s="8">
+        <v>12356</v>
+      </c>
+      <c r="R7" s="8">
+        <v>15015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>144.6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>193.7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>240.7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>243.8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>294.39999999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>325.8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <v>391.2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>411.6</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>468.5</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>505.2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <v>547.1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="6">
         <v>553.67765199999997</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="6">
         <v>676.7</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
         <v>667</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="6">
         <v>634.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="Q8" s="6">
+        <v>657.6</v>
+      </c>
+      <c r="R8" s="6">
+        <v>845.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>11.9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>14.8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>18.7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>18.2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>24.1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>34.9</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <v>45.1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <v>59.1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <v>71.3</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>118.3</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="6">
         <v>108.8</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="6">
         <v>115.06753</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <v>148.4</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
         <v>146.4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="6">
         <v>114.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="Q9" s="6">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="R9" s="6">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>6.6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>10.3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>9.9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>11.2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>13</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>24</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>41</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <v>49.9</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <v>61.3</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="6">
         <v>67.900000000000006</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="6">
         <v>74.234070000000003</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <v>90</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="Q10" s="6">
+        <v>99.1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>24.1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>29.2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>38</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>50.4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>108.7</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
         <v>133</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>152.6</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>175.6</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <v>196.5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="6">
         <v>237.1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="6">
         <v>285.60820000000001</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>304.89999999999998</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <v>370.3</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="6">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="Q11" s="6">
+        <v>384.3</v>
+      </c>
+      <c r="R11" s="6">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>5.5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>5.3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>3.9</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>10.4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <v>14.1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>25.6</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>17.5</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>27.1</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <v>23.5</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>43.091340000000002</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="6">
         <v>49.5</v>
       </c>
-      <c r="P12" s="16">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="P12" s="6">
+        <v>327</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="R12" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>413.5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>432.1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>410.1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>492</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>888.4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <v>1008.6</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <v>1237.8</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <v>1506.9</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <v>1569.5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="6">
         <v>1936.8</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>1868.63159</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <v>2181.4</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
         <v>2685.3</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="6">
         <v>2294.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="Q13" s="6">
+        <v>2532.3000000000002</v>
+      </c>
+      <c r="R13" s="6">
+        <v>3711.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>402.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>413.8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>392.4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>466.2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>854.7</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
         <v>965.2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="6">
         <v>1180.5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="6">
         <v>1437.6</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="6">
         <v>1454.5</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="6">
         <v>1831.6</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <v>1761.33501</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <v>2039.7</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="6">
         <v>2547.6999999999998</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="6">
         <v>2185.3000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="Q14" s="6">
+        <v>2388</v>
+      </c>
+      <c r="R14" s="6">
+        <v>3555.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1185,13 +1235,13 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1206,9 +1256,8 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1225,7 +1274,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1242,42 +1291,42 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J27" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="9"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="9"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="9"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
+      <c r="B63" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/4/vachroba/vachroba.xlsx
+++ b/regions/4/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="6165" windowWidth="25170" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17445" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,20 +496,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="72.140625" style="1" customWidth="1"/>
+    <col min="2" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -530,8 +531,9 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -548,7 +550,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>2006</v>
@@ -601,8 +603,11 @@
       <c r="R3" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S3" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -657,8 +662,11 @@
       <c r="R4" s="6">
         <v>4079.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S4" s="6">
+        <v>4104.3999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -713,8 +721,11 @@
       <c r="R5" s="6">
         <v>726.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S5" s="6">
+        <v>837.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -769,8 +780,11 @@
       <c r="R6" s="8">
         <v>17420</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S6" s="8">
+        <v>17903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -825,8 +839,11 @@
       <c r="R7" s="8">
         <v>15015</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S7" s="8">
+        <v>15676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -881,8 +898,11 @@
       <c r="R8" s="6">
         <v>845.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S8" s="6">
+        <v>982.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -937,8 +957,11 @@
       <c r="R9" s="6">
         <v>159.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S9" s="6">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -993,8 +1016,11 @@
       <c r="R10" s="6">
         <v>154.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S10" s="6">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1075,11 @@
       <c r="R11" s="6">
         <v>567.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S11" s="6">
+        <v>641.79999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1134,11 @@
       <c r="R12" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S12" s="6">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1161,8 +1193,11 @@
       <c r="R13" s="6">
         <v>3711.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S13" s="6">
+        <v>3658.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +1252,11 @@
       <c r="R14" s="6">
         <v>3555.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="6">
+        <v>3472.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1235,7 +1273,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1364,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
